--- a/data/spuibeheer/extern/verwerkt_in_excel/os_KGO_2021.xlsx
+++ b/data/spuibeheer/extern/verwerkt_in_excel/os_KGO_2021.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>19u30</t>
   </si>
@@ -97,6 +97,54 @@
   </si>
   <si>
     <t>dicht</t>
+  </si>
+  <si>
+    <t>16u15</t>
+  </si>
+  <si>
+    <t>17u05</t>
+  </si>
+  <si>
+    <t>19u50</t>
+  </si>
+  <si>
+    <t>nvv</t>
+  </si>
+  <si>
+    <t>12u20</t>
+  </si>
+  <si>
+    <t>14u30</t>
+  </si>
+  <si>
+    <t>01u40</t>
+  </si>
+  <si>
+    <t>04u45</t>
+  </si>
+  <si>
+    <t>15u15</t>
+  </si>
+  <si>
+    <t>18u40</t>
+  </si>
+  <si>
+    <t>13u31</t>
+  </si>
+  <si>
+    <t>16u00</t>
+  </si>
+  <si>
+    <t>16u05</t>
+  </si>
+  <si>
+    <t>18u35</t>
+  </si>
+  <si>
+    <t>15u22</t>
+  </si>
+  <si>
+    <t>17u30</t>
   </si>
 </sst>
 </file>
@@ -116,15 +164,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -147,11 +201,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -162,6 +276,27 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -691,6 +826,272 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="10">
+        <v>43892</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="10">
+        <v>43893</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="10">
+        <v>43894</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="10">
+        <v>43895</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="10">
+        <v>43896</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="10">
+        <v>43897</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="6"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="10">
+        <v>43898</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="10">
+        <v>43910</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="6"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="10">
+        <v>43914</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="10">
+        <v>43915</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="10">
+        <v>43918</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="10">
+        <v>43919</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="10">
+        <v>43920</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="10">
+        <v>43921</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="6"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="11">
+        <v>43955</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="7"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="11">
+        <v>43926</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="7"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="11">
+        <v>43928</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="11">
+        <v>43929</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="7"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="11">
+        <v>43932</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="7"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="11">
+        <v>43933</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="7"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="11">
+        <v>43939</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="7"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="11">
+        <v>43941</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="7"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="11">
+        <v>43948</v>
+      </c>
+      <c r="B50" s="1"/>
+      <c r="C50" s="7"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="11">
+        <v>43949</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="7"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="11">
+        <v>43949</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="11">
+        <v>43950</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="7"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="11">
+        <v>43951</v>
+      </c>
+      <c r="B54" s="1"/>
+      <c r="C54" s="7"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="10">
+        <v>43953</v>
+      </c>
+      <c r="B55" s="5"/>
+      <c r="C55" s="6"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="10">
+        <v>43954</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="6"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="10">
+        <v>43955</v>
+      </c>
+      <c r="B57" s="5"/>
+      <c r="C57" s="6"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="10">
+        <v>43960</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A59" s="10">
+        <v>43961</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C59" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>

--- a/data/spuibeheer/extern/verwerkt_in_excel/os_KGO_2021.xlsx
+++ b/data/spuibeheer/extern/verwerkt_in_excel/os_KGO_2021.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>19u30</t>
   </si>
@@ -97,54 +97,6 @@
   </si>
   <si>
     <t>dicht</t>
-  </si>
-  <si>
-    <t>16u15</t>
-  </si>
-  <si>
-    <t>17u05</t>
-  </si>
-  <si>
-    <t>19u50</t>
-  </si>
-  <si>
-    <t>nvv</t>
-  </si>
-  <si>
-    <t>12u20</t>
-  </si>
-  <si>
-    <t>14u30</t>
-  </si>
-  <si>
-    <t>01u40</t>
-  </si>
-  <si>
-    <t>04u45</t>
-  </si>
-  <si>
-    <t>15u15</t>
-  </si>
-  <si>
-    <t>18u40</t>
-  </si>
-  <si>
-    <t>13u31</t>
-  </si>
-  <si>
-    <t>16u00</t>
-  </si>
-  <si>
-    <t>16u05</t>
-  </si>
-  <si>
-    <t>18u35</t>
-  </si>
-  <si>
-    <t>15u22</t>
-  </si>
-  <si>
-    <t>17u30</t>
   </si>
 </sst>
 </file>
@@ -164,21 +116,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -201,71 +147,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -276,27 +162,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -826,272 +691,6 @@
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="10">
-        <v>43892</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="10">
-        <v>43893</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="10">
-        <v>43894</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="10">
-        <v>43895</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="10">
-        <v>43896</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="10">
-        <v>43897</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="10">
-        <v>43898</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="10">
-        <v>43910</v>
-      </c>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="10">
-        <v>43914</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="10">
-        <v>43915</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="10">
-        <v>43918</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="10">
-        <v>43919</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="10">
-        <v>43920</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="6"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="10">
-        <v>43921</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="6"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="11">
-        <v>43955</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="7"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="11">
-        <v>43926</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="7"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="11">
-        <v>43928</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="11">
-        <v>43929</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="7"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="11">
-        <v>43932</v>
-      </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="7"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="11">
-        <v>43933</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="7"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="11">
-        <v>43939</v>
-      </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="7"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="11">
-        <v>43941</v>
-      </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="7"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="11">
-        <v>43948</v>
-      </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="7"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="11">
-        <v>43949</v>
-      </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="7"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="11">
-        <v>43949</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="11">
-        <v>43950</v>
-      </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="7"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="11">
-        <v>43951</v>
-      </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="7"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="10">
-        <v>43953</v>
-      </c>
-      <c r="B55" s="5"/>
-      <c r="C55" s="6"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="10">
-        <v>43954</v>
-      </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="6"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="10">
-        <v>43955</v>
-      </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="6"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="10">
-        <v>43960</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="10">
-        <v>43961</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C59" s="9"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
